--- a/Tarea a resolver/Datos.xlsx
+++ b/Tarea a resolver/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarloschuncho/Desktop/Curso Python1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarloschuncho/Desktop/Curso Python1.0/Tarea a resolver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62575985-BE6F-114D-8093-F47C4CE07CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C8243C-045F-174B-9B4C-BD3180499CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
-      <selection activeCell="E834" sqref="E834"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,6 +1139,12 @@
       <c r="A37">
         <v>37</v>
       </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
       <c r="D37">
         <v>249.673</v>
       </c>
@@ -1153,6 +1159,12 @@
       <c r="A38">
         <v>38</v>
       </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
       <c r="D38">
         <v>236.703</v>
       </c>
@@ -1167,6 +1179,12 @@
       <c r="A39">
         <v>39</v>
       </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39">
         <v>223.482</v>
       </c>
@@ -1181,6 +1199,12 @@
       <c r="A40">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
       <c r="D40">
         <v>198.035</v>
       </c>
@@ -1195,6 +1219,12 @@
       <c r="A41">
         <v>41</v>
       </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
       <c r="D41">
         <v>170.07599999999999</v>
       </c>
@@ -1209,6 +1239,12 @@
       <c r="A42">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
       <c r="D42">
         <v>117.52500000000001</v>
       </c>
@@ -1223,6 +1259,12 @@
       <c r="A43">
         <v>43</v>
       </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
       <c r="D43">
         <v>90.506</v>
       </c>
@@ -1237,6 +1279,12 @@
       <c r="A44">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
       <c r="D44">
         <v>248.21799999999999</v>
       </c>
@@ -1251,6 +1299,12 @@
       <c r="A45">
         <v>45</v>
       </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
       <c r="D45">
         <v>236.453</v>
       </c>
@@ -1265,6 +1319,12 @@
       <c r="A46">
         <v>46</v>
       </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
       <c r="D46">
         <v>221.88200000000001</v>
       </c>
@@ -1279,6 +1339,12 @@
       <c r="A47">
         <v>47</v>
       </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
       <c r="D47">
         <v>195.852</v>
       </c>
@@ -1293,6 +1359,12 @@
       <c r="A48">
         <v>48</v>
       </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
       <c r="D48">
         <v>168.828</v>
       </c>
@@ -1307,6 +1379,12 @@
       <c r="A49">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
       <c r="D49">
         <v>115.754</v>
       </c>
@@ -1321,6 +1399,12 @@
       <c r="A50">
         <v>50</v>
       </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
       <c r="D50">
         <v>90.918999999999997</v>
       </c>
@@ -1475,6 +1559,12 @@
       <c r="A58">
         <v>58</v>
       </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
       <c r="E58" t="s">
         <v>6</v>
       </c>
@@ -1483,6 +1573,12 @@
       <c r="A59">
         <v>59</v>
       </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
@@ -1491,6 +1587,12 @@
       <c r="A60">
         <v>60</v>
       </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
@@ -1499,6 +1601,12 @@
       <c r="A61">
         <v>61</v>
       </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" t="s">
         <v>6</v>
       </c>
@@ -1507,6 +1615,12 @@
       <c r="A62">
         <v>62</v>
       </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
@@ -1515,6 +1629,12 @@
       <c r="A63">
         <v>63</v>
       </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
@@ -1523,6 +1643,12 @@
       <c r="A64">
         <v>64</v>
       </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
@@ -1531,6 +1657,12 @@
       <c r="A65">
         <v>65</v>
       </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
@@ -1539,6 +1671,12 @@
       <c r="A66">
         <v>66</v>
       </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
@@ -1547,6 +1685,12 @@
       <c r="A67">
         <v>67</v>
       </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
       <c r="E67" t="s">
         <v>6</v>
       </c>
@@ -1555,6 +1699,12 @@
       <c r="A68">
         <v>68</v>
       </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
@@ -1563,6 +1713,12 @@
       <c r="A69">
         <v>69</v>
       </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
       <c r="E69" t="s">
         <v>6</v>
       </c>
@@ -1571,6 +1727,12 @@
       <c r="A70">
         <v>70</v>
       </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
       <c r="E70" t="s">
         <v>6</v>
       </c>
@@ -1579,6 +1741,12 @@
       <c r="A71">
         <v>71</v>
       </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
       <c r="E71" t="s">
         <v>6</v>
       </c>
@@ -1627,6 +1795,12 @@
       <c r="A74">
         <v>74</v>
       </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
       <c r="E74" t="s">
         <v>6</v>
       </c>
@@ -1635,6 +1809,12 @@
       <c r="A75">
         <v>75</v>
       </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
       <c r="E75" t="s">
         <v>6</v>
       </c>
@@ -1643,6 +1823,12 @@
       <c r="A76">
         <v>76</v>
       </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
       <c r="E76" t="s">
         <v>6</v>
       </c>
@@ -1651,6 +1837,12 @@
       <c r="A77">
         <v>77</v>
       </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
       <c r="E77" t="s">
         <v>6</v>
       </c>
@@ -1659,6 +1851,12 @@
       <c r="A78">
         <v>78</v>
       </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
       <c r="E78" t="s">
         <v>6</v>
       </c>
@@ -1667,6 +1865,12 @@
       <c r="A79">
         <v>79</v>
       </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
       <c r="E79" t="s">
         <v>6</v>
       </c>
@@ -1675,6 +1879,12 @@
       <c r="A80">
         <v>80</v>
       </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
       <c r="E80" t="s">
         <v>6</v>
       </c>
@@ -2983,6 +3193,12 @@
       <c r="A146">
         <v>146</v>
       </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
       <c r="E146" t="s">
         <v>6</v>
       </c>
@@ -2991,6 +3207,12 @@
       <c r="A147">
         <v>147</v>
       </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
       <c r="E147" t="s">
         <v>6</v>
       </c>
@@ -2999,6 +3221,12 @@
       <c r="A148">
         <v>148</v>
       </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
       <c r="E148" t="s">
         <v>6</v>
       </c>
@@ -3007,6 +3235,12 @@
       <c r="A149">
         <v>149</v>
       </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
       <c r="E149" t="s">
         <v>6</v>
       </c>
@@ -3015,6 +3249,12 @@
       <c r="A150">
         <v>150</v>
       </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
       <c r="E150" t="s">
         <v>6</v>
       </c>
@@ -3023,6 +3263,12 @@
       <c r="A151">
         <v>151</v>
       </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
       <c r="E151" t="s">
         <v>6</v>
       </c>
@@ -3031,6 +3277,12 @@
       <c r="A152">
         <v>152</v>
       </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
       <c r="E152" t="s">
         <v>6</v>
       </c>
@@ -3039,6 +3291,12 @@
       <c r="A153">
         <v>153</v>
       </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
       <c r="E153" t="s">
         <v>6</v>
       </c>
@@ -3047,6 +3305,12 @@
       <c r="A154">
         <v>154</v>
       </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
       <c r="E154" t="s">
         <v>6</v>
       </c>
@@ -3055,6 +3319,12 @@
       <c r="A155">
         <v>155</v>
       </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
       <c r="E155" t="s">
         <v>6</v>
       </c>
@@ -3063,6 +3333,12 @@
       <c r="A156">
         <v>156</v>
       </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
       <c r="E156" t="s">
         <v>6</v>
       </c>
@@ -3071,6 +3347,12 @@
       <c r="A157">
         <v>157</v>
       </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
       <c r="E157" t="s">
         <v>6</v>
       </c>
@@ -3079,6 +3361,12 @@
       <c r="A158">
         <v>158</v>
       </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
       <c r="E158" t="s">
         <v>6</v>
       </c>
@@ -3087,6 +3375,12 @@
       <c r="A159">
         <v>159</v>
       </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
       <c r="E159" t="s">
         <v>6</v>
       </c>
@@ -3095,6 +3389,12 @@
       <c r="A160">
         <v>160</v>
       </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
       <c r="E160" t="s">
         <v>6</v>
       </c>
@@ -3103,6 +3403,12 @@
       <c r="A161">
         <v>161</v>
       </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
       <c r="E161" t="s">
         <v>6</v>
       </c>
@@ -3111,6 +3417,12 @@
       <c r="A162">
         <v>162</v>
       </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
       <c r="E162" t="s">
         <v>6</v>
       </c>
@@ -3119,6 +3431,12 @@
       <c r="A163">
         <v>163</v>
       </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
       <c r="E163" t="s">
         <v>6</v>
       </c>
@@ -3127,6 +3445,12 @@
       <c r="A164">
         <v>164</v>
       </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
       <c r="E164" t="s">
         <v>6</v>
       </c>
@@ -3135,6 +3459,12 @@
       <c r="A165">
         <v>165</v>
       </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
       <c r="E165" t="s">
         <v>6</v>
       </c>
@@ -3143,6 +3473,12 @@
       <c r="A166">
         <v>166</v>
       </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
       <c r="E166" t="s">
         <v>6</v>
       </c>
@@ -3151,6 +3487,12 @@
       <c r="A167">
         <v>167</v>
       </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
       <c r="E167" t="s">
         <v>6</v>
       </c>
@@ -3159,6 +3501,12 @@
       <c r="A168">
         <v>168</v>
       </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
       <c r="E168" t="s">
         <v>6</v>
       </c>
@@ -3167,6 +3515,12 @@
       <c r="A169">
         <v>169</v>
       </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
       <c r="E169" t="s">
         <v>6</v>
       </c>
@@ -3175,6 +3529,12 @@
       <c r="A170">
         <v>170</v>
       </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
       <c r="E170" t="s">
         <v>6</v>
       </c>
@@ -3183,6 +3543,12 @@
       <c r="A171">
         <v>171</v>
       </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
       <c r="E171" t="s">
         <v>6</v>
       </c>
@@ -3191,6 +3557,12 @@
       <c r="A172">
         <v>172</v>
       </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
       <c r="E172" t="s">
         <v>6</v>
       </c>
@@ -3199,6 +3571,12 @@
       <c r="A173">
         <v>173</v>
       </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
       <c r="E173" t="s">
         <v>6</v>
       </c>
@@ -3207,6 +3585,12 @@
       <c r="A174">
         <v>174</v>
       </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
       <c r="E174" t="s">
         <v>6</v>
       </c>
@@ -3215,6 +3599,12 @@
       <c r="A175">
         <v>175</v>
       </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
       <c r="E175" t="s">
         <v>6</v>
       </c>
@@ -3383,6 +3773,12 @@
       <c r="A184">
         <v>184</v>
       </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
       <c r="E184" t="s">
         <v>6</v>
       </c>
@@ -3391,6 +3787,12 @@
       <c r="A185">
         <v>185</v>
       </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
       <c r="E185" t="s">
         <v>6</v>
       </c>
@@ -3399,6 +3801,12 @@
       <c r="A186">
         <v>186</v>
       </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
       <c r="E186" t="s">
         <v>6</v>
       </c>
@@ -3507,6 +3915,12 @@
       <c r="A192">
         <v>192</v>
       </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
       <c r="E192" t="s">
         <v>6</v>
       </c>
@@ -3515,6 +3929,12 @@
       <c r="A193">
         <v>193</v>
       </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
       <c r="E193" t="s">
         <v>6</v>
       </c>
@@ -3523,6 +3943,12 @@
       <c r="A194">
         <v>194</v>
       </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
       <c r="E194" t="s">
         <v>6</v>
       </c>
@@ -3531,6 +3957,12 @@
       <c r="A195">
         <v>195</v>
       </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
       <c r="E195" t="s">
         <v>6</v>
       </c>
@@ -3539,6 +3971,12 @@
       <c r="A196">
         <v>196</v>
       </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
       <c r="E196" t="s">
         <v>6</v>
       </c>
@@ -3547,6 +3985,12 @@
       <c r="A197">
         <v>197</v>
       </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
       <c r="E197" t="s">
         <v>6</v>
       </c>
@@ -3555,6 +3999,12 @@
       <c r="A198">
         <v>198</v>
       </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
       <c r="E198" t="s">
         <v>6</v>
       </c>
@@ -3563,6 +4013,12 @@
       <c r="A199">
         <v>199</v>
       </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
       <c r="E199" t="s">
         <v>6</v>
       </c>
@@ -3571,6 +4027,12 @@
       <c r="A200">
         <v>200</v>
       </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
       <c r="E200" t="s">
         <v>6</v>
       </c>
@@ -3579,6 +4041,12 @@
       <c r="A201">
         <v>201</v>
       </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
       <c r="E201" t="s">
         <v>6</v>
       </c>
@@ -3587,6 +4055,12 @@
       <c r="A202">
         <v>202</v>
       </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
       <c r="E202" t="s">
         <v>6</v>
       </c>
@@ -3595,6 +4069,12 @@
       <c r="A203">
         <v>203</v>
       </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
       <c r="E203" t="s">
         <v>6</v>
       </c>
@@ -3603,6 +4083,12 @@
       <c r="A204">
         <v>204</v>
       </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
       <c r="E204" t="s">
         <v>6</v>
       </c>
@@ -3611,6 +4097,12 @@
       <c r="A205">
         <v>205</v>
       </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
       <c r="E205" t="s">
         <v>6</v>
       </c>
@@ -3619,6 +4111,12 @@
       <c r="A206">
         <v>206</v>
       </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
       <c r="E206" t="s">
         <v>6</v>
       </c>
@@ -3627,6 +4125,12 @@
       <c r="A207">
         <v>207</v>
       </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
       <c r="E207" t="s">
         <v>6</v>
       </c>
@@ -3635,6 +4139,12 @@
       <c r="A208">
         <v>208</v>
       </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
       <c r="E208" t="s">
         <v>6</v>
       </c>
@@ -3643,6 +4153,12 @@
       <c r="A209">
         <v>209</v>
       </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
       <c r="E209" t="s">
         <v>6</v>
       </c>
@@ -3651,6 +4167,12 @@
       <c r="A210">
         <v>210</v>
       </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
       <c r="E210" t="s">
         <v>6</v>
       </c>
@@ -3659,6 +4181,12 @@
       <c r="A211">
         <v>211</v>
       </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
       <c r="E211" t="s">
         <v>6</v>
       </c>
@@ -3667,6 +4195,12 @@
       <c r="A212">
         <v>212</v>
       </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
       <c r="E212" t="s">
         <v>6</v>
       </c>
@@ -3675,6 +4209,12 @@
       <c r="A213">
         <v>213</v>
       </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
       <c r="E213" t="s">
         <v>6</v>
       </c>
@@ -3683,6 +4223,12 @@
       <c r="A214">
         <v>214</v>
       </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
       <c r="E214" t="s">
         <v>6</v>
       </c>
@@ -3691,6 +4237,12 @@
       <c r="A215">
         <v>215</v>
       </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
       <c r="E215" t="s">
         <v>6</v>
       </c>
@@ -3699,6 +4251,12 @@
       <c r="A216">
         <v>216</v>
       </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
       <c r="E216" t="s">
         <v>6</v>
       </c>
@@ -3707,6 +4265,12 @@
       <c r="A217">
         <v>217</v>
       </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
       <c r="E217" t="s">
         <v>6</v>
       </c>
@@ -4055,6 +4619,12 @@
       <c r="A235">
         <v>235</v>
       </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
       <c r="E235" t="s">
         <v>6</v>
       </c>
@@ -4066,6 +4636,12 @@
       <c r="A236">
         <v>236</v>
       </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
       <c r="E236" t="s">
         <v>6</v>
       </c>
@@ -4077,6 +4653,12 @@
       <c r="A237">
         <v>237</v>
       </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
       <c r="E237" t="s">
         <v>6</v>
       </c>
@@ -4088,6 +4670,12 @@
       <c r="A238">
         <v>238</v>
       </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
       <c r="E238" t="s">
         <v>6</v>
       </c>
@@ -4099,6 +4687,12 @@
       <c r="A239">
         <v>239</v>
       </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
       <c r="E239" t="s">
         <v>6</v>
       </c>
@@ -4110,6 +4704,12 @@
       <c r="A240">
         <v>240</v>
       </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
       <c r="E240" t="s">
         <v>6</v>
       </c>
@@ -4121,6 +4721,12 @@
       <c r="A241">
         <v>241</v>
       </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
       <c r="E241" t="s">
         <v>6</v>
       </c>
@@ -4132,6 +4738,12 @@
       <c r="A242">
         <v>242</v>
       </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
       <c r="E242" t="s">
         <v>6</v>
       </c>
@@ -4140,6 +4752,12 @@
       <c r="A243">
         <v>243</v>
       </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
       <c r="E243" t="s">
         <v>6</v>
       </c>
@@ -4148,6 +4766,12 @@
       <c r="A244">
         <v>244</v>
       </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
       <c r="E244" t="s">
         <v>6</v>
       </c>
@@ -4156,6 +4780,12 @@
       <c r="A245">
         <v>245</v>
       </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
       <c r="E245" t="s">
         <v>6</v>
       </c>
@@ -4164,6 +4794,12 @@
       <c r="A246">
         <v>246</v>
       </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
       <c r="E246" t="s">
         <v>6</v>
       </c>
@@ -4172,6 +4808,12 @@
       <c r="A247">
         <v>247</v>
       </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
       <c r="E247" t="s">
         <v>6</v>
       </c>
@@ -4180,6 +4822,12 @@
       <c r="A248">
         <v>248</v>
       </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
       <c r="E248" t="s">
         <v>6</v>
       </c>
@@ -4188,6 +4836,12 @@
       <c r="A249">
         <v>249</v>
       </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
       <c r="E249" t="s">
         <v>6</v>
       </c>
@@ -4236,6 +4890,12 @@
       <c r="A252">
         <v>252</v>
       </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
       <c r="E252" t="s">
         <v>6</v>
       </c>
@@ -4247,6 +4907,12 @@
       <c r="A253">
         <v>253</v>
       </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
       <c r="E253" t="s">
         <v>6</v>
       </c>
@@ -4258,6 +4924,12 @@
       <c r="A254">
         <v>254</v>
       </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
       <c r="E254" t="s">
         <v>6</v>
       </c>
@@ -4269,6 +4941,12 @@
       <c r="A255">
         <v>255</v>
       </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
       <c r="E255" t="s">
         <v>6</v>
       </c>
@@ -4280,6 +4958,12 @@
       <c r="A256">
         <v>256</v>
       </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
       <c r="E256" t="s">
         <v>6</v>
       </c>
@@ -4291,6 +4975,12 @@
       <c r="A257">
         <v>257</v>
       </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
       <c r="E257" t="s">
         <v>6</v>
       </c>
@@ -4302,6 +4992,12 @@
       <c r="A258">
         <v>258</v>
       </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
       <c r="E258" t="s">
         <v>6</v>
       </c>
@@ -4313,6 +5009,12 @@
       <c r="A259">
         <v>259</v>
       </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
       <c r="E259" t="s">
         <v>6</v>
       </c>
@@ -4321,6 +5023,12 @@
       <c r="A260">
         <v>260</v>
       </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
       <c r="E260" t="s">
         <v>6</v>
       </c>
@@ -4332,6 +5040,12 @@
       <c r="A261">
         <v>261</v>
       </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
       <c r="E261" t="s">
         <v>6</v>
       </c>
@@ -4343,6 +5057,12 @@
       <c r="A262">
         <v>262</v>
       </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
       <c r="E262" t="s">
         <v>6</v>
       </c>
@@ -4354,6 +5074,12 @@
       <c r="A263">
         <v>263</v>
       </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
       <c r="E263" t="s">
         <v>6</v>
       </c>
@@ -4365,6 +5091,12 @@
       <c r="A264">
         <v>264</v>
       </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
       <c r="E264" t="s">
         <v>6</v>
       </c>
@@ -4376,6 +5108,12 @@
       <c r="A265">
         <v>265</v>
       </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
       <c r="E265" t="s">
         <v>6</v>
       </c>
@@ -4387,6 +5125,12 @@
       <c r="A266">
         <v>266</v>
       </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
       <c r="E266" t="s">
         <v>6</v>
       </c>
@@ -4658,6 +5402,12 @@
       <c r="A280">
         <v>280</v>
       </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
       <c r="E280" t="s">
         <v>6</v>
       </c>
@@ -4669,6 +5419,12 @@
       <c r="A281">
         <v>281</v>
       </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
       <c r="E281" t="s">
         <v>6</v>
       </c>
@@ -4680,6 +5436,12 @@
       <c r="A282">
         <v>282</v>
       </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
       <c r="E282" t="s">
         <v>6</v>
       </c>
@@ -4691,6 +5453,12 @@
       <c r="A283">
         <v>283</v>
       </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
       <c r="E283" t="s">
         <v>6</v>
       </c>
@@ -4702,6 +5470,12 @@
       <c r="A284">
         <v>284</v>
       </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
       <c r="E284" t="s">
         <v>6</v>
       </c>
@@ -4713,6 +5487,12 @@
       <c r="A285">
         <v>285</v>
       </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
       <c r="E285" t="s">
         <v>6</v>
       </c>
@@ -4724,6 +5504,12 @@
       <c r="A286">
         <v>286</v>
       </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
       <c r="E286" t="s">
         <v>6</v>
       </c>
@@ -4735,6 +5521,12 @@
       <c r="A287">
         <v>287</v>
       </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
       <c r="E287" t="s">
         <v>6</v>
       </c>
@@ -4746,6 +5538,12 @@
       <c r="A288">
         <v>288</v>
       </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
       <c r="E288" t="s">
         <v>6</v>
       </c>
@@ -4757,6 +5555,12 @@
       <c r="A289">
         <v>289</v>
       </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
       <c r="E289" t="s">
         <v>6</v>
       </c>
@@ -4768,6 +5572,12 @@
       <c r="A290">
         <v>290</v>
       </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
       <c r="E290" t="s">
         <v>6</v>
       </c>
@@ -4779,6 +5589,12 @@
       <c r="A291">
         <v>291</v>
       </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
       <c r="E291" t="s">
         <v>6</v>
       </c>
@@ -4790,6 +5606,12 @@
       <c r="A292">
         <v>292</v>
       </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
       <c r="E292" t="s">
         <v>6</v>
       </c>
@@ -4841,6 +5663,12 @@
       <c r="A295">
         <v>295</v>
       </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
       <c r="E295" t="s">
         <v>6</v>
       </c>
@@ -4852,6 +5680,12 @@
       <c r="A296">
         <v>296</v>
       </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
       <c r="E296" t="s">
         <v>6</v>
       </c>
@@ -4863,6 +5697,12 @@
       <c r="A297">
         <v>297</v>
       </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
       <c r="E297" t="s">
         <v>6</v>
       </c>
@@ -4874,6 +5714,12 @@
       <c r="A298">
         <v>298</v>
       </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
       <c r="E298" t="s">
         <v>6</v>
       </c>
@@ -4885,6 +5731,12 @@
       <c r="A299">
         <v>299</v>
       </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
       <c r="E299" t="s">
         <v>6</v>
       </c>
@@ -4896,6 +5748,12 @@
       <c r="A300">
         <v>300</v>
       </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
       <c r="E300" t="s">
         <v>6</v>
       </c>
@@ -4907,6 +5765,12 @@
       <c r="A301">
         <v>301</v>
       </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
       <c r="E301" t="s">
         <v>6</v>
       </c>
@@ -4918,6 +5782,12 @@
       <c r="A302">
         <v>302</v>
       </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
       <c r="E302" t="s">
         <v>6</v>
       </c>
@@ -4929,6 +5799,12 @@
       <c r="A303">
         <v>303</v>
       </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
       <c r="E303" t="s">
         <v>6</v>
       </c>
@@ -4940,6 +5816,12 @@
       <c r="A304">
         <v>304</v>
       </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
       <c r="E304" t="s">
         <v>6</v>
       </c>
@@ -4951,6 +5833,12 @@
       <c r="A305">
         <v>305</v>
       </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
       <c r="E305" t="s">
         <v>6</v>
       </c>
@@ -4962,6 +5850,12 @@
       <c r="A306">
         <v>306</v>
       </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
       <c r="E306" t="s">
         <v>6</v>
       </c>
@@ -4973,6 +5867,12 @@
       <c r="A307">
         <v>307</v>
       </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
       <c r="E307" t="s">
         <v>6</v>
       </c>
@@ -4984,6 +5884,12 @@
       <c r="A308">
         <v>308</v>
       </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
       <c r="E308" t="s">
         <v>6</v>
       </c>
@@ -4995,6 +5901,12 @@
       <c r="A309">
         <v>309</v>
       </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
       <c r="E309" t="s">
         <v>6</v>
       </c>
@@ -5066,6 +5978,12 @@
       <c r="A313">
         <v>313</v>
       </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
       <c r="E313" t="s">
         <v>6</v>
       </c>
@@ -5074,6 +5992,12 @@
       <c r="A314">
         <v>314</v>
       </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
       <c r="E314" t="s">
         <v>6</v>
       </c>
@@ -5082,6 +6006,12 @@
       <c r="A315">
         <v>315</v>
       </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
       <c r="E315" t="s">
         <v>6</v>
       </c>
@@ -5090,6 +6020,12 @@
       <c r="A316">
         <v>316</v>
       </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
       <c r="E316" t="s">
         <v>6</v>
       </c>
@@ -5098,6 +6034,12 @@
       <c r="A317">
         <v>317</v>
       </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
       <c r="E317" t="s">
         <v>6</v>
       </c>
@@ -5106,6 +6048,12 @@
       <c r="A318">
         <v>318</v>
       </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
       <c r="E318" t="s">
         <v>6</v>
       </c>
@@ -5114,6 +6062,12 @@
       <c r="A319">
         <v>319</v>
       </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
       <c r="E319" t="s">
         <v>6</v>
       </c>
@@ -5942,6 +6896,12 @@
       <c r="A361">
         <v>361</v>
       </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
       <c r="E361" t="s">
         <v>6</v>
       </c>
@@ -5950,6 +6910,12 @@
       <c r="A362">
         <v>362</v>
       </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
       <c r="E362" t="s">
         <v>6</v>
       </c>
@@ -6341,6 +7307,12 @@
       <c r="A382">
         <v>382</v>
       </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
       <c r="E382" t="s">
         <v>6</v>
       </c>
@@ -6349,6 +7321,12 @@
       <c r="A383">
         <v>383</v>
       </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
       <c r="E383" t="s">
         <v>6</v>
       </c>
@@ -6357,6 +7335,12 @@
       <c r="A384">
         <v>384</v>
       </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
       <c r="E384" t="s">
         <v>6</v>
       </c>
@@ -6465,6 +7449,12 @@
       <c r="A390">
         <v>390</v>
       </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
       <c r="E390" t="s">
         <v>6</v>
       </c>
@@ -6473,6 +7463,12 @@
       <c r="A391">
         <v>391</v>
       </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
       <c r="E391" t="s">
         <v>6</v>
       </c>
@@ -6481,6 +7477,12 @@
       <c r="A392">
         <v>392</v>
       </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
       <c r="E392" t="s">
         <v>6</v>
       </c>
@@ -6489,6 +7491,12 @@
       <c r="A393">
         <v>393</v>
       </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
       <c r="E393" t="s">
         <v>6</v>
       </c>
@@ -6497,6 +7505,12 @@
       <c r="A394">
         <v>394</v>
       </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
       <c r="E394" t="s">
         <v>6</v>
       </c>
@@ -6505,6 +7519,12 @@
       <c r="A395">
         <v>395</v>
       </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
       <c r="E395" t="s">
         <v>6</v>
       </c>
@@ -6513,6 +7533,12 @@
       <c r="A396">
         <v>396</v>
       </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
       <c r="E396" t="s">
         <v>6</v>
       </c>
@@ -6521,6 +7547,12 @@
       <c r="A397">
         <v>397</v>
       </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
       <c r="E397" t="s">
         <v>6</v>
       </c>
@@ -6529,6 +7561,12 @@
       <c r="A398">
         <v>398</v>
       </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
       <c r="E398" t="s">
         <v>6</v>
       </c>
@@ -6537,6 +7575,12 @@
       <c r="A399">
         <v>399</v>
       </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
       <c r="E399" t="s">
         <v>6</v>
       </c>
@@ -10365,6 +11409,12 @@
       <c r="A591">
         <v>591</v>
       </c>
+      <c r="B591" t="s">
+        <v>6</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
       <c r="E591" t="s">
         <v>6</v>
       </c>
@@ -10373,6 +11423,12 @@
       <c r="A592">
         <v>592</v>
       </c>
+      <c r="B592" t="s">
+        <v>6</v>
+      </c>
+      <c r="C592" t="s">
+        <v>6</v>
+      </c>
       <c r="E592" t="s">
         <v>6</v>
       </c>
@@ -10381,6 +11437,12 @@
       <c r="A593">
         <v>593</v>
       </c>
+      <c r="B593" t="s">
+        <v>6</v>
+      </c>
+      <c r="C593" t="s">
+        <v>6</v>
+      </c>
       <c r="E593" t="s">
         <v>6</v>
       </c>
@@ -10389,6 +11451,12 @@
       <c r="A594">
         <v>594</v>
       </c>
+      <c r="B594" t="s">
+        <v>6</v>
+      </c>
+      <c r="C594" t="s">
+        <v>6</v>
+      </c>
       <c r="E594" t="s">
         <v>6</v>
       </c>
@@ -10397,6 +11465,12 @@
       <c r="A595">
         <v>595</v>
       </c>
+      <c r="B595" t="s">
+        <v>6</v>
+      </c>
+      <c r="C595" t="s">
+        <v>6</v>
+      </c>
       <c r="E595" t="s">
         <v>6</v>
       </c>
@@ -10405,6 +11479,12 @@
       <c r="A596">
         <v>596</v>
       </c>
+      <c r="B596" t="s">
+        <v>6</v>
+      </c>
+      <c r="C596" t="s">
+        <v>6</v>
+      </c>
       <c r="E596" t="s">
         <v>6</v>
       </c>
@@ -10413,6 +11493,12 @@
       <c r="A597">
         <v>597</v>
       </c>
+      <c r="B597" t="s">
+        <v>6</v>
+      </c>
+      <c r="C597" t="s">
+        <v>6</v>
+      </c>
       <c r="E597" t="s">
         <v>6</v>
       </c>
@@ -10421,6 +11507,12 @@
       <c r="A598">
         <v>598</v>
       </c>
+      <c r="B598" t="s">
+        <v>6</v>
+      </c>
+      <c r="C598" t="s">
+        <v>6</v>
+      </c>
       <c r="E598" t="s">
         <v>6</v>
       </c>
@@ -10509,6 +11601,12 @@
       <c r="A603">
         <v>603</v>
       </c>
+      <c r="B603" t="s">
+        <v>6</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
       <c r="E603" t="s">
         <v>6</v>
       </c>
@@ -10517,6 +11615,12 @@
       <c r="A604">
         <v>604</v>
       </c>
+      <c r="B604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
       <c r="E604" t="s">
         <v>6</v>
       </c>
@@ -10525,6 +11629,12 @@
       <c r="A605">
         <v>605</v>
       </c>
+      <c r="B605" t="s">
+        <v>6</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
       <c r="E605" t="s">
         <v>6</v>
       </c>
@@ -10533,6 +11643,12 @@
       <c r="A606">
         <v>606</v>
       </c>
+      <c r="B606" t="s">
+        <v>6</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
+      </c>
       <c r="E606" t="s">
         <v>6</v>
       </c>
@@ -10541,6 +11657,12 @@
       <c r="A607">
         <v>607</v>
       </c>
+      <c r="B607" t="s">
+        <v>6</v>
+      </c>
+      <c r="C607" t="s">
+        <v>6</v>
+      </c>
       <c r="E607" t="s">
         <v>6</v>
       </c>
@@ -10549,6 +11671,12 @@
       <c r="A608">
         <v>608</v>
       </c>
+      <c r="B608" t="s">
+        <v>6</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
       <c r="E608" t="s">
         <v>6</v>
       </c>
@@ -10557,6 +11685,12 @@
       <c r="A609">
         <v>609</v>
       </c>
+      <c r="B609" t="s">
+        <v>6</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
       <c r="E609" t="s">
         <v>6</v>
       </c>
@@ -10565,6 +11699,12 @@
       <c r="A610">
         <v>610</v>
       </c>
+      <c r="B610" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
       <c r="E610" t="s">
         <v>6</v>
       </c>
@@ -10573,6 +11713,12 @@
       <c r="A611">
         <v>611</v>
       </c>
+      <c r="B611" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s">
+        <v>6</v>
+      </c>
       <c r="E611" t="s">
         <v>6</v>
       </c>
@@ -10821,6 +11967,12 @@
       <c r="A624">
         <v>624</v>
       </c>
+      <c r="B624" t="s">
+        <v>6</v>
+      </c>
+      <c r="C624" t="s">
+        <v>6</v>
+      </c>
       <c r="E624" t="s">
         <v>6</v>
       </c>
@@ -10829,6 +11981,12 @@
       <c r="A625">
         <v>625</v>
       </c>
+      <c r="B625" t="s">
+        <v>6</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
       <c r="E625" t="s">
         <v>6</v>
       </c>
@@ -10837,6 +11995,12 @@
       <c r="A626">
         <v>626</v>
       </c>
+      <c r="B626" t="s">
+        <v>6</v>
+      </c>
+      <c r="C626" t="s">
+        <v>6</v>
+      </c>
       <c r="E626" t="s">
         <v>6</v>
       </c>
@@ -10845,6 +12009,12 @@
       <c r="A627">
         <v>627</v>
       </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+      <c r="C627" t="s">
+        <v>6</v>
+      </c>
       <c r="E627" t="s">
         <v>6</v>
       </c>
@@ -10853,6 +12023,12 @@
       <c r="A628">
         <v>628</v>
       </c>
+      <c r="B628" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
       <c r="E628" t="s">
         <v>6</v>
       </c>
@@ -10861,6 +12037,12 @@
       <c r="A629">
         <v>629</v>
       </c>
+      <c r="B629" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
       <c r="E629" t="s">
         <v>6</v>
       </c>
@@ -10869,6 +12051,12 @@
       <c r="A630">
         <v>630</v>
       </c>
+      <c r="B630" t="s">
+        <v>6</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
       <c r="E630" t="s">
         <v>6</v>
       </c>
@@ -12237,6 +13425,12 @@
       <c r="A699">
         <v>699</v>
       </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699" t="s">
+        <v>6</v>
+      </c>
       <c r="E699" t="s">
         <v>6</v>
       </c>
@@ -12245,6 +13439,12 @@
       <c r="A700">
         <v>700</v>
       </c>
+      <c r="B700" t="s">
+        <v>6</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
       <c r="E700" t="s">
         <v>6</v>
       </c>
@@ -12593,6 +13793,12 @@
       <c r="A718">
         <v>718</v>
       </c>
+      <c r="B718" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
       <c r="E718" t="s">
         <v>6</v>
       </c>
@@ -12601,6 +13807,12 @@
       <c r="A719">
         <v>719</v>
       </c>
+      <c r="B719" t="s">
+        <v>6</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
       <c r="E719" t="s">
         <v>6</v>
       </c>
@@ -12609,6 +13821,12 @@
       <c r="A720">
         <v>720</v>
       </c>
+      <c r="B720" t="s">
+        <v>6</v>
+      </c>
+      <c r="C720" t="s">
+        <v>6</v>
+      </c>
       <c r="E720" t="s">
         <v>6</v>
       </c>
@@ -14320,6 +15538,12 @@
       <c r="A806">
         <v>806</v>
       </c>
+      <c r="B806" t="s">
+        <v>6</v>
+      </c>
+      <c r="C806" t="s">
+        <v>6</v>
+      </c>
       <c r="E806" t="s">
         <v>6</v>
       </c>
@@ -14348,6 +15572,12 @@
       <c r="A808">
         <v>808</v>
       </c>
+      <c r="B808" t="s">
+        <v>6</v>
+      </c>
+      <c r="C808" t="s">
+        <v>6</v>
+      </c>
       <c r="E808" t="s">
         <v>6</v>
       </c>
@@ -14356,6 +15586,12 @@
       <c r="A809">
         <v>809</v>
       </c>
+      <c r="B809" t="s">
+        <v>6</v>
+      </c>
+      <c r="C809" t="s">
+        <v>6</v>
+      </c>
       <c r="E809" t="s">
         <v>6</v>
       </c>
@@ -14364,6 +15600,12 @@
       <c r="A810">
         <v>810</v>
       </c>
+      <c r="B810" t="s">
+        <v>6</v>
+      </c>
+      <c r="C810" t="s">
+        <v>6</v>
+      </c>
       <c r="E810" t="s">
         <v>6</v>
       </c>
@@ -14372,6 +15614,12 @@
       <c r="A811">
         <v>811</v>
       </c>
+      <c r="B811" t="s">
+        <v>6</v>
+      </c>
+      <c r="C811" t="s">
+        <v>6</v>
+      </c>
       <c r="E811" t="s">
         <v>6</v>
       </c>
@@ -14380,6 +15628,12 @@
       <c r="A812">
         <v>812</v>
       </c>
+      <c r="B812" t="s">
+        <v>6</v>
+      </c>
+      <c r="C812" t="s">
+        <v>6</v>
+      </c>
       <c r="E812" t="s">
         <v>6</v>
       </c>
@@ -14388,6 +15642,12 @@
       <c r="A813">
         <v>813</v>
       </c>
+      <c r="B813" t="s">
+        <v>6</v>
+      </c>
+      <c r="C813" t="s">
+        <v>6</v>
+      </c>
       <c r="E813" t="s">
         <v>6</v>
       </c>
@@ -14396,6 +15656,12 @@
       <c r="A814">
         <v>814</v>
       </c>
+      <c r="B814" t="s">
+        <v>6</v>
+      </c>
+      <c r="C814" t="s">
+        <v>6</v>
+      </c>
       <c r="E814" t="s">
         <v>6</v>
       </c>
@@ -14404,6 +15670,12 @@
       <c r="A815">
         <v>815</v>
       </c>
+      <c r="B815" t="s">
+        <v>6</v>
+      </c>
+      <c r="C815" t="s">
+        <v>6</v>
+      </c>
       <c r="E815" t="s">
         <v>6</v>
       </c>
@@ -14412,6 +15684,12 @@
       <c r="A816">
         <v>816</v>
       </c>
+      <c r="B816" t="s">
+        <v>6</v>
+      </c>
+      <c r="C816" t="s">
+        <v>6</v>
+      </c>
       <c r="E816" t="s">
         <v>6</v>
       </c>
@@ -14420,6 +15698,12 @@
       <c r="A817">
         <v>817</v>
       </c>
+      <c r="B817" t="s">
+        <v>6</v>
+      </c>
+      <c r="C817" t="s">
+        <v>6</v>
+      </c>
       <c r="E817" t="s">
         <v>6</v>
       </c>
@@ -14428,6 +15712,12 @@
       <c r="A818">
         <v>818</v>
       </c>
+      <c r="B818" t="s">
+        <v>6</v>
+      </c>
+      <c r="C818" t="s">
+        <v>6</v>
+      </c>
       <c r="E818" t="s">
         <v>6</v>
       </c>
@@ -14436,6 +15726,12 @@
       <c r="A819">
         <v>819</v>
       </c>
+      <c r="B819" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819" t="s">
+        <v>6</v>
+      </c>
       <c r="E819" t="s">
         <v>6</v>
       </c>
@@ -14444,6 +15740,12 @@
       <c r="A820">
         <v>820</v>
       </c>
+      <c r="B820" t="s">
+        <v>6</v>
+      </c>
+      <c r="C820" t="s">
+        <v>6</v>
+      </c>
       <c r="E820" t="s">
         <v>6</v>
       </c>
@@ -14692,6 +15994,12 @@
       <c r="A833">
         <v>833</v>
       </c>
+      <c r="B833" t="s">
+        <v>6</v>
+      </c>
+      <c r="C833" t="s">
+        <v>6</v>
+      </c>
       <c r="E833" t="s">
         <v>6</v>
       </c>
@@ -14699,6 +16007,12 @@
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>834</v>
+      </c>
+      <c r="B834" t="s">
+        <v>6</v>
+      </c>
+      <c r="C834" t="s">
+        <v>6</v>
       </c>
       <c r="E834" t="s">
         <v>6</v>
